--- a/CONSEQUENCES.xlsx
+++ b/CONSEQUENCES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kult0-my.sharepoint.com/personal/arturas_razinkovas-baziukas_ku_lt/Documents/HORIZON_EUROPE/bowtie_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:20001_{8ED08688-564E-4276-8D24-03370D8EFE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1BB68EF-A5BC-4B2E-8CE0-6F7C4582A277}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:20001_{8ED08688-564E-4276-8D24-03370D8EFE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AF77F3B-B519-45D5-B629-11616F14FE97}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,7 +881,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="3" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
     <col min="4" max="4" width="35.140625" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="73.5703125" customWidth="1"/>
